--- a/tests/testthat/fixtures/ex3/tables/dif_dich_sex.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/dif_dich_sex.xlsx
@@ -513,16 +513,16 @@
         <v>2100</v>
       </c>
       <c r="D2" t="n">
-        <v>15560</v>
+        <v>15637</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>15596</v>
+        <v>15673</v>
       </c>
       <c r="G2" t="n">
-        <v>15698</v>
+        <v>15775</v>
       </c>
     </row>
     <row r="3">
@@ -536,16 +536,16 @@
         <v>2100</v>
       </c>
       <c r="D3" t="n">
-        <v>15546</v>
+        <v>15628</v>
       </c>
       <c r="E3" t="n">
         <v>33</v>
       </c>
       <c r="F3" t="n">
-        <v>15612</v>
+        <v>15694</v>
       </c>
       <c r="G3" t="n">
-        <v>15798</v>
+        <v>15880</v>
       </c>
     </row>
   </sheetData>
@@ -653,16 +653,16 @@
         <v>24</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.046</v>
+        <v>-0.089</v>
       </c>
       <c r="C2" t="n">
         <v>0.075</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.043</v>
+        <v>-0.084</v>
       </c>
       <c r="E2" t="n">
-        <v>0.376</v>
+        <v>1.408</v>
       </c>
       <c r="F2" t="n">
         <v>117.283</v>
@@ -682,16 +682,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.136</v>
+        <v>-0.082</v>
       </c>
       <c r="C3" t="n">
         <v>0.065</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.128</v>
+        <v>-0.077</v>
       </c>
       <c r="E3" t="n">
-        <v>4.378</v>
+        <v>1.591</v>
       </c>
       <c r="F3" t="n">
         <v>117.283</v>
@@ -711,16 +711,16 @@
         <v>26</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.328</v>
+        <v>-0.107</v>
       </c>
       <c r="C4" t="n">
-        <v>0.086</v>
+        <v>0.085</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.309</v>
+        <v>-0.101</v>
       </c>
       <c r="E4" t="n">
-        <v>14.546</v>
+        <v>1.585</v>
       </c>
       <c r="F4" t="n">
         <v>117.283</v>
@@ -740,16 +740,16 @@
         <v>27</v>
       </c>
       <c r="B5" t="n">
-        <v>0.019</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.099</v>
+        <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.018</v>
+        <v>0.047</v>
       </c>
       <c r="E5" t="n">
-        <v>0.037</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
         <v>117.283</v>
@@ -769,16 +769,16 @@
         <v>28</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.008</v>
+        <v>-0.022</v>
       </c>
       <c r="C6" t="n">
         <v>0.098</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.008</v>
+        <v>-0.021</v>
       </c>
       <c r="E6" t="n">
-        <v>0.007</v>
+        <v>0.05</v>
       </c>
       <c r="F6" t="n">
         <v>117.283</v>
@@ -798,16 +798,16 @@
         <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.034</v>
+        <v>-0.042</v>
       </c>
       <c r="C7" t="n">
         <v>0.095</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.032</v>
+        <v>-0.04</v>
       </c>
       <c r="E7" t="n">
-        <v>0.128</v>
+        <v>0.195</v>
       </c>
       <c r="F7" t="n">
         <v>117.283</v>
@@ -827,16 +827,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.113</v>
+        <v>0.123</v>
       </c>
       <c r="C8" t="n">
-        <v>0.095</v>
+        <v>0.094</v>
       </c>
       <c r="D8" t="n">
-        <v>0.106</v>
+        <v>0.116</v>
       </c>
       <c r="E8" t="n">
-        <v>1.415</v>
+        <v>1.712</v>
       </c>
       <c r="F8" t="n">
         <v>117.283</v>
@@ -856,16 +856,16 @@
         <v>31</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.138</v>
+        <v>-0.168</v>
       </c>
       <c r="C9" t="n">
-        <v>0.093</v>
+        <v>0.094</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.13</v>
+        <v>-0.159</v>
       </c>
       <c r="E9" t="n">
-        <v>2.202</v>
+        <v>3.194</v>
       </c>
       <c r="F9" t="n">
         <v>117.283</v>
@@ -885,16 +885,16 @@
         <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>0.034</v>
+        <v>-0.044</v>
       </c>
       <c r="C10" t="n">
-        <v>0.094</v>
+        <v>0.093</v>
       </c>
       <c r="D10" t="n">
-        <v>0.032</v>
+        <v>-0.042</v>
       </c>
       <c r="E10" t="n">
-        <v>0.131</v>
+        <v>0.224</v>
       </c>
       <c r="F10" t="n">
         <v>117.283</v>
@@ -914,16 +914,16 @@
         <v>33</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.179</v>
+        <v>-0.182</v>
       </c>
       <c r="C11" t="n">
         <v>0.094</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.169</v>
+        <v>-0.172</v>
       </c>
       <c r="E11" t="n">
-        <v>3.626</v>
+        <v>3.749</v>
       </c>
       <c r="F11" t="n">
         <v>117.283</v>
@@ -943,16 +943,16 @@
         <v>34</v>
       </c>
       <c r="B12" t="n">
-        <v>0.101</v>
+        <v>0.125</v>
       </c>
       <c r="C12" t="n">
-        <v>0.096</v>
+        <v>0.097</v>
       </c>
       <c r="D12" t="n">
-        <v>0.095</v>
+        <v>0.118</v>
       </c>
       <c r="E12" t="n">
-        <v>1.107</v>
+        <v>1.661</v>
       </c>
       <c r="F12" t="n">
         <v>117.283</v>
@@ -972,16 +972,16 @@
         <v>35</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.166</v>
+        <v>-0.173</v>
       </c>
       <c r="C13" t="n">
         <v>0.101</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.156</v>
+        <v>-0.163</v>
       </c>
       <c r="E13" t="n">
-        <v>2.701</v>
+        <v>2.934</v>
       </c>
       <c r="F13" t="n">
         <v>117.283</v>
@@ -1001,16 +1001,16 @@
         <v>36</v>
       </c>
       <c r="B14" t="n">
-        <v>0.179</v>
+        <v>0.181</v>
       </c>
       <c r="C14" t="n">
         <v>0.093</v>
       </c>
       <c r="D14" t="n">
-        <v>0.169</v>
+        <v>0.171</v>
       </c>
       <c r="E14" t="n">
-        <v>3.705</v>
+        <v>3.788</v>
       </c>
       <c r="F14" t="n">
         <v>117.283</v>
@@ -1030,16 +1030,16 @@
         <v>37</v>
       </c>
       <c r="B15" t="n">
-        <v>0.223</v>
+        <v>0.201</v>
       </c>
       <c r="C15" t="n">
-        <v>0.093</v>
+        <v>0.094</v>
       </c>
       <c r="D15" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="E15" t="n">
-        <v>5.75</v>
+        <v>4.572</v>
       </c>
       <c r="F15" t="n">
         <v>117.283</v>
@@ -1059,16 +1059,16 @@
         <v>38</v>
       </c>
       <c r="B16" t="n">
-        <v>0.407</v>
+        <v>0.323</v>
       </c>
       <c r="C16" t="n">
         <v>0.098</v>
       </c>
       <c r="D16" t="n">
-        <v>0.383</v>
+        <v>0.305</v>
       </c>
       <c r="E16" t="n">
-        <v>17.248</v>
+        <v>10.863</v>
       </c>
       <c r="F16" t="n">
         <v>117.283</v>
@@ -1088,16 +1088,16 @@
         <v>39</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04</v>
+        <v>0.094</v>
       </c>
       <c r="C17" t="n">
         <v>0.357</v>
       </c>
       <c r="D17" t="n">
-        <v>0.038</v>
+        <v>0.089</v>
       </c>
       <c r="E17" t="n">
-        <v>0.013</v>
+        <v>0.069</v>
       </c>
       <c r="F17" t="n">
         <v>117.283</v>
@@ -1142,10 +1142,10 @@
         <v>42</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.406</v>
+        <v>-0.413</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.383</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="3">
@@ -1153,10 +1153,10 @@
         <v>43</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.385</v>
+        <v>-0.4</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.363</v>
+        <v>-0.377</v>
       </c>
     </row>
   </sheetData>
